--- a/01-Resignation-Predictor/final_data/final_data.xlsx
+++ b/01-Resignation-Predictor/final_data/final_data.xlsx
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/01-Resignation-Predictor/final_data/final_data.xlsx
+++ b/01-Resignation-Predictor/final_data/final_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Predicted</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster_label</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -460,6 +465,9 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +479,9 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -482,6 +493,9 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -493,6 +507,9 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -504,6 +521,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -515,6 +535,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -526,6 +549,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -537,6 +563,9 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -548,6 +577,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -559,6 +591,9 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -570,6 +605,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -581,6 +619,9 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -592,6 +633,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -603,6 +647,9 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -614,6 +661,9 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -625,6 +675,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -636,6 +689,9 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -647,6 +703,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -658,6 +717,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -668,6 +730,9 @@
       </c>
       <c r="C21" t="n">
         <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
